--- a/Gemelo Digital/Señales/Señales.xlsx
+++ b/Gemelo Digital/Señales/Señales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unal 12\APM\Git_APM\Autopack\Gemelo Digital\Señales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC246C8-9080-4A14-B5AE-F44FD138E9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAFF2A4-FACB-4EF9-B70F-9C2DB643ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2A288D47-3993-4A63-9C3C-3EBC2D5D82F1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{2A288D47-3993-4A63-9C3C-3EBC2D5D82F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>Encendr/Apagar volcador</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Encender/Apagar compresor</t>
   </si>
   <si>
-    <t>Encender/Apagar cilindro neumatico 1</t>
-  </si>
-  <si>
-    <t>Encender/Apagar cilindro neumatico 2</t>
-  </si>
-  <si>
     <t>Encender/Apagar conveyor belt 1</t>
   </si>
   <si>
@@ -144,12 +138,6 @@
     <t>Compresor</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>S_clasif</t>
   </si>
   <si>
@@ -196,13 +184,58 @@
   </si>
   <si>
     <t>Encender/Apagar conveyor belt 3</t>
+  </si>
+  <si>
+    <t>sConv</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Sensor de Caja delante del cilindro C1</t>
+  </si>
+  <si>
+    <t>mConv</t>
+  </si>
+  <si>
+    <t>lConv</t>
+  </si>
+  <si>
+    <t>Sensor de Caja delante del cilindro C2</t>
+  </si>
+  <si>
+    <t>C1f</t>
+  </si>
+  <si>
+    <t>C1b</t>
+  </si>
+  <si>
+    <t>Sensor de cajas conveyor belt 3 (vegetal grande)</t>
+  </si>
+  <si>
+    <t>Cilinder 1 moves forward</t>
+  </si>
+  <si>
+    <t>Cilinder 1 moves backward</t>
+  </si>
+  <si>
+    <t>Cilinder 2 moves backward</t>
+  </si>
+  <si>
+    <t>Cilinder 2 moves forward</t>
+  </si>
+  <si>
+    <t>C2b</t>
+  </si>
+  <si>
+    <t>C2f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,16 +257,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -256,16 +302,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,7 +393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -629,44 +689,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E2BEF1-5ECE-4754-A2A8-623A84CAD175}">
-  <dimension ref="A2:B28"/>
+  <dimension ref="A2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -674,7 +734,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -682,7 +742,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -690,7 +750,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -698,7 +758,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -706,7 +766,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -714,7 +774,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -722,7 +782,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -730,7 +790,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -738,7 +798,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -746,7 +806,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -754,106 +814,155 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>49</v>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Gemelo Digital/Señales/Señales.xlsx
+++ b/Gemelo Digital/Señales/Señales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAFF2A4-FACB-4EF9-B70F-9C2DB643ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E53EC2-A75A-4DE1-B0C9-81CB66B9B1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{2A288D47-3993-4A63-9C3C-3EBC2D5D82F1}"/>
+    <workbookView xWindow="4230" yWindow="1755" windowWidth="17835" windowHeight="11325" xr2:uid="{2A288D47-3993-4A63-9C3C-3EBC2D5D82F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>Encendr/Apagar volcador</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Parada de emergencia general</t>
   </si>
   <si>
-    <t>Sensor para clasificacion de empaque</t>
-  </si>
-  <si>
     <t>Sensor 1 final de carrera cilindro1</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Compresor</t>
   </si>
   <si>
-    <t>S_clasif</t>
-  </si>
-  <si>
     <t>S1_C1</t>
   </si>
   <si>
@@ -156,24 +150,6 @@
     <t>S_Count</t>
   </si>
   <si>
-    <t>S_Count1</t>
-  </si>
-  <si>
-    <t>S_Count2</t>
-  </si>
-  <si>
-    <t>S_count3</t>
-  </si>
-  <si>
-    <t>Sensor conteo de cajas conveyor belt 1 (vegetal pequeño)</t>
-  </si>
-  <si>
-    <t>Sensor conteo de cajas conveyor belt 2 (vegetal mediano)</t>
-  </si>
-  <si>
-    <t>Sensor conteo de cajas conveyor belt 3 (vegetal grande)</t>
-  </si>
-  <si>
     <t>BC_1</t>
   </si>
   <si>
@@ -186,24 +162,6 @@
     <t>Encender/Apagar conveyor belt 3</t>
   </si>
   <si>
-    <t>sConv</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Sensor de Caja delante del cilindro C1</t>
-  </si>
-  <si>
-    <t>mConv</t>
-  </si>
-  <si>
-    <t>lConv</t>
-  </si>
-  <si>
-    <t>Sensor de Caja delante del cilindro C2</t>
-  </si>
-  <si>
     <t>C1f</t>
   </si>
   <si>
@@ -229,13 +187,70 @@
   </si>
   <si>
     <t>C2f</t>
+  </si>
+  <si>
+    <t>isGreen</t>
+  </si>
+  <si>
+    <t>isBlue</t>
+  </si>
+  <si>
+    <t>isRed</t>
+  </si>
+  <si>
+    <t>totalCount</t>
+  </si>
+  <si>
+    <t>sCount</t>
+  </si>
+  <si>
+    <t>mCount</t>
+  </si>
+  <si>
+    <t>lCount</t>
+  </si>
+  <si>
+    <t>Número total de cajas</t>
+  </si>
+  <si>
+    <t>Número total de cajas pequeñas</t>
+  </si>
+  <si>
+    <t>Número total de cajas medias</t>
+  </si>
+  <si>
+    <t>Número total de cajas grandes</t>
+  </si>
+  <si>
+    <t>Sensor de Caja delante del cilindro C2 (vegetal medio)</t>
+  </si>
+  <si>
+    <t>Sensor de Caja delante del cilindro C1 (vegetal pequeño)</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>DINT</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,29 +272,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -313,19 +315,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,16 +376,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>711397</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130372</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>335328</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>516303</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>48688</xdr:rowOff>
+      <xdr:rowOff>1063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -379,7 +408,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5007172" y="285749"/>
+          <a:off x="5950147" y="238124"/>
           <a:ext cx="11815931" cy="6430439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -689,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E2BEF1-5ECE-4754-A2A8-623A84CAD175}">
-  <dimension ref="A2:C33"/>
+  <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,269 +729,456 @@
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B34" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Gemelo Digital/Señales/Señales.xlsx
+++ b/Gemelo Digital/Señales/Señales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E53EC2-A75A-4DE1-B0C9-81CB66B9B1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75F51B-02CC-4A7F-8DC4-B653E06E8791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="1755" windowWidth="17835" windowHeight="11325" xr2:uid="{2A288D47-3993-4A63-9C3C-3EBC2D5D82F1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{2A288D47-3993-4A63-9C3C-3EBC2D5D82F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>S2_C1</t>
   </si>
   <si>
-    <t>S_Count</t>
-  </si>
-  <si>
     <t>BC_1</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>tCount</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,10 +737,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,10 +765,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,10 +793,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,10 +821,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,10 +863,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,10 +891,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,52 +905,52 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,10 +961,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,10 +975,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,10 +989,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,122 +1003,122 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,58 +1127,58 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
